--- a/data/case1/14/Plm1_13.xlsx
+++ b/data/case1/14/Plm1_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.061492977720249087</v>
+        <v>-0.065182100734830328</v>
       </c>
       <c r="B1" s="0">
-        <v>0.061433492086777619</v>
+        <v>0.065112778237065072</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.015324132556207459</v>
+        <v>-0.019002471753216454</v>
       </c>
       <c r="B2" s="0">
-        <v>0.015172309431688902</v>
+        <v>0.018830402752247011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08775744330273838</v>
+        <v>0.084100224335667662</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.087940138802096612</v>
+        <v>-0.0842725142130476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19605096681508272</v>
+        <v>-0.19972060499146593</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19513574933855438</v>
+        <v>0.19876749690787321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18913574983832504</v>
+        <v>-0.19276749740385224</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18728616101479822</v>
+        <v>0.19084084150214053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.11340853051092514</v>
+        <v>-0.075953957097774083</v>
       </c>
       <c r="B6" s="0">
-        <v>0.11325344092892253</v>
+        <v>0.075884224100142728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.093253441544826288</v>
+        <v>-0.055884224689277673</v>
       </c>
       <c r="B7" s="0">
-        <v>0.092853941981939414</v>
+        <v>0.055732213795613106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.072853942605725308</v>
+        <v>-0.035732214388622729</v>
       </c>
       <c r="B8" s="0">
-        <v>0.072481802917198301</v>
+        <v>0.035607157562709268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.066481803456467148</v>
+        <v>-0.029607158084484553</v>
       </c>
       <c r="B9" s="0">
-        <v>0.066157037696020105</v>
+        <v>0.029499996731691347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.060157038244078365</v>
+        <v>-0.056010284887200612</v>
       </c>
       <c r="B10" s="0">
-        <v>0.060110309555803099</v>
+        <v>0.055964901731492489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.056880951079463671</v>
+        <v>-0.051464902249300337</v>
       </c>
       <c r="B11" s="0">
-        <v>0.05680355602310172</v>
+        <v>0.051387858519429841</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.050803556574788189</v>
+        <v>-0.045387859046467582</v>
       </c>
       <c r="B12" s="0">
-        <v>0.050550569862638284</v>
+        <v>0.045148411408242328</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.044550570423898428</v>
+        <v>-0.039148411942609762</v>
       </c>
       <c r="B13" s="0">
-        <v>0.044476813834369189</v>
+        <v>0.039083245602221872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.032476814438889612</v>
+        <v>-0.02708324617087321</v>
       </c>
       <c r="B14" s="0">
-        <v>0.032425843632401197</v>
+        <v>0.02705179519013079</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02105198297521671</v>
+        <v>-0.021051795728099343</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027154267385662</v>
+        <v>0.021027045427256752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027154835771661</v>
+        <v>-0.015027045966633512</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004222073589091</v>
+        <v>0.015004350236447639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090042226443456386</v>
+        <v>-0.0090043507777037846</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994084530854</v>
+        <v>0.0089999994423592966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036109360050112116</v>
+        <v>-0.036110306994746821</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096314392800366</v>
+        <v>0.036096539942715111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096314905835861</v>
+        <v>-0.027096540448479534</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013446240487404</v>
+        <v>0.027013683443542824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013446758178731</v>
+        <v>-0.018013683953347126</v>
       </c>
       <c r="B20" s="0">
-        <v>0.01800421171168054</v>
+        <v>0.01800427928588455</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042122300513228</v>
+        <v>-0.0090042797962324173</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999994810892048</v>
+        <v>0.0089999994893625868</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093929753248502834</v>
+        <v>-0.093930627594701832</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0936227747010836</v>
+        <v>0.093623188490546738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084622775219544977</v>
+        <v>-0.084623189001008292</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124413015151944</v>
+        <v>0.084124552113959083</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124413763619195</v>
+        <v>-0.042124552809021942</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999247277486</v>
+        <v>0.041999999301569169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.067877631023172569</v>
+        <v>-0.1088868849170197</v>
       </c>
       <c r="B25" s="0">
-        <v>0.06782223988297531</v>
+        <v>0.10873369492106377</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.061822240403611062</v>
+        <v>-0.10273369543532951</v>
       </c>
       <c r="B26" s="0">
-        <v>0.061755271708463511</v>
+        <v>0.10254090181367559</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.055755272230941344</v>
+        <v>-0.096540902330200851</v>
       </c>
       <c r="B27" s="0">
-        <v>0.055540417342649917</v>
+        <v>0.095897620873736322</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.049540417872190545</v>
+        <v>-0.089897621401532568</v>
       </c>
       <c r="B28" s="0">
-        <v>0.049409027432192332</v>
+        <v>0.089469413264342101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.076144816399231985</v>
+        <v>-0.066678005559190012</v>
       </c>
       <c r="B29" s="0">
-        <v>0.075947024459862789</v>
+        <v>0.066420989862747248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042160627710351672</v>
+        <v>-0.042164117318785888</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018375239432526</v>
+        <v>0.04201920206338805</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018375843725906</v>
+        <v>-0.027019202655111485</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000640312524027</v>
+        <v>0.027000796084028167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006409579873576</v>
+        <v>-0.0060007967085908831</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994551809266</v>
+        <v>0.0059999994557982106</v>
       </c>
     </row>
   </sheetData>
